--- a/experiments/notebookGr4sp/EE__sigma_mu_star_V2.xlsx
+++ b/experiments/notebookGr4sp/EE__sigma_mu_star_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\gr4sp\experiments\notebookGr4sp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D981F84-4919-48AC-B380-05258A6F0702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F26F94B7-C025-4A7E-9519-74D662CAD719}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6555" windowWidth="29040" windowHeight="15840" tabRatio="776" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="776" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GHGYear" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="rooftopPVProductionYear" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -569,7 +570,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6C68F3A-8A24-413B-A0B7-FFD316151133}" type="CELLRANGE">
+                    <a:fld id="{F2474C5A-7C7E-4C64-B655-1D361B1D85C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -588,7 +589,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -603,7 +603,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0813059-7A13-4C02-9A90-C3906D8175E6}" type="CELLRANGE">
+                    <a:fld id="{2BC4E982-B22E-41BF-A39F-161C15547D18}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -622,7 +622,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -637,7 +636,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D86301F-B5F9-4330-98A2-C34394DFD442}" type="CELLRANGE">
+                    <a:fld id="{7B5BE311-A979-4764-AE15-4E2415706180}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -656,7 +655,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -671,7 +669,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA6946EC-DB4C-4FB8-A8F4-0FA3FBBF10EA}" type="CELLRANGE">
+                    <a:fld id="{E0765EC2-0E6F-415D-8BAA-ACFB5B253570}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -690,7 +688,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -705,7 +702,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AC0CA97-942F-4D9F-9C36-135ED362B7F0}" type="CELLRANGE">
+                    <a:fld id="{FF2A7B40-64FA-4DD2-8F40-CDF997A86F46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -724,7 +721,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -739,7 +735,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C83235A1-A2CC-4B27-A574-66281061AA67}" type="CELLRANGE">
+                    <a:fld id="{4B83018B-94E2-4CE8-9295-56D3EF60730B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -758,7 +754,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -773,7 +768,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F394F36C-F1CE-4CBC-AC21-EF305187F2EC}" type="CELLRANGE">
+                    <a:fld id="{6B2F7B5F-2B22-4B3E-AAB8-91BDD981853A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -792,7 +787,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -807,7 +801,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D13D7233-A02C-4CEE-8117-0E0F01BE8799}" type="CELLRANGE">
+                    <a:fld id="{CF512FD3-C017-4FA2-AD13-42103C330EE4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -826,7 +820,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -841,7 +834,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1BE9F5D-DC35-464E-A3DF-C79C2458F2C0}" type="CELLRANGE">
+                    <a:fld id="{655633B5-2AB7-456E-A37D-14156345982D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -860,7 +853,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -875,7 +867,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CAA7832-E389-4E52-9855-EB2BD0C1AF16}" type="CELLRANGE">
+                    <a:fld id="{0AD420F6-133D-47C8-936B-5DCCD2DB6C22}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -894,7 +886,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -909,7 +900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05079D6F-B1D6-4328-B231-65A6A5E9B276}" type="CELLRANGE">
+                    <a:fld id="{EA01270D-9B8D-4F7B-A6AD-5DFFFA6C3498}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -928,7 +919,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -943,7 +933,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{511D6277-3BF3-4FB7-B700-FB5600708BBF}" type="CELLRANGE">
+                    <a:fld id="{32CB9848-591F-49B7-B961-B03C01D8C014}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -962,7 +952,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -977,7 +966,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DEF91B8-6B90-4791-A926-EEDB86771677}" type="CELLRANGE">
+                    <a:fld id="{A7E16051-AC15-40B9-AF5C-A96619226DC2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -996,7 +985,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1011,7 +999,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C82A6945-0426-44BE-9B32-9CF4FAA31421}" type="CELLRANGE">
+                    <a:fld id="{73830D23-D749-44E1-892D-9C04397B77FA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1030,7 +1018,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1045,7 +1032,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABBE9BA2-2A7B-433A-8A5F-1905D08FD789}" type="CELLRANGE">
+                    <a:fld id="{ADE9AC2B-8BA6-41B5-BE0B-A5800822A254}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1064,7 +1051,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1079,7 +1065,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB20C96E-C736-45AB-86B9-806FAB485126}" type="CELLRANGE">
+                    <a:fld id="{51BC9283-5D30-4CD6-8365-89F69789D1A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1098,7 +1084,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1113,7 +1098,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D3BF996-36BA-4331-AC46-53C0AB7B06D6}" type="CELLRANGE">
+                    <a:fld id="{C4710407-B955-4D32-A443-107A1326C76E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1132,7 +1117,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1147,7 +1131,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{111B5B7B-91E1-446A-A1A2-FBFBF0009827}" type="CELLRANGE">
+                    <a:fld id="{16DA5FCF-63A4-4131-B0BD-E4D5898B15E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1166,7 +1150,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1181,7 +1164,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58D33CD9-5CC4-4926-A2BB-36E5B1C1D339}" type="CELLRANGE">
+                    <a:fld id="{C6FBC313-A791-4ECD-9F1E-C579A7F9EFCC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1200,7 +1183,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1215,7 +1197,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF4743CC-F828-497D-AD7F-95E4DCF536F1}" type="CELLRANGE">
+                    <a:fld id="{6920FADC-9785-4B50-B002-C3FB965E9EE7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1234,7 +1216,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1249,7 +1230,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92554FA5-B8A3-4938-9819-87DAAD7FF431}" type="CELLRANGE">
+                    <a:fld id="{014C3DA3-5803-47B1-9543-2CCA0FC66A9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1268,7 +1249,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1283,7 +1263,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC38CD3F-388D-41E9-95D0-6260B47DDD78}" type="CELLRANGE">
+                    <a:fld id="{825ED68B-87F5-4F5C-AFEB-D39B3C22721F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1302,7 +1282,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1317,7 +1296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4A5406E-E910-4CAA-8A75-ADE5ADBC11C7}" type="CELLRANGE">
+                    <a:fld id="{F0E2011A-5C77-4030-845B-C98D203ABCC5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1336,7 +1315,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1351,7 +1329,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B6F905C-FF5D-41BF-8BB5-972F662CFD50}" type="CELLRANGE">
+                    <a:fld id="{AF632AB3-4895-407F-A44B-95D5D85F908C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1370,7 +1348,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1385,7 +1362,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BFB97FAA-5F31-4C80-8A27-8495E83F4758}" type="CELLRANGE">
+                    <a:fld id="{0EEEFF86-FB5E-4774-A622-2DA18DBD2C14}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1418,7 +1395,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C301A5B-7145-4003-86BA-9FF07EDBB4D7}" type="CELLRANGE">
+                    <a:fld id="{B8718881-035A-4F76-8B8C-E482FB465F87}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1451,7 +1428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EC0920A-2859-4464-A94F-AAF74DBA8451}" type="CELLRANGE">
+                    <a:fld id="{B9EC19A7-C489-4F81-A577-8467A6402420}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1484,7 +1461,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8C2945E-EC37-4157-8059-7146980239AD}" type="CELLRANGE">
+                    <a:fld id="{365F1EBF-E1C6-41EB-A264-DD16CBF6FE0D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1503,7 +1480,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1518,7 +1494,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C07608F-E4A9-4A1D-AD16-888B4E6B7859}" type="CELLRANGE">
+                    <a:fld id="{A13019C2-58A6-4203-9CF3-222CEE87CB21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1537,7 +1513,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1552,7 +1527,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C96465E-812B-4D94-BFC9-6C480E717D3C}" type="CELLRANGE">
+                    <a:fld id="{A4B83B61-BE41-47A3-B9EE-44287FF92191}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1571,7 +1546,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1586,7 +1560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{970ABDFA-0FF2-4818-8163-4A84321C4EBD}" type="CELLRANGE">
+                    <a:fld id="{81DE0935-93DA-47B5-861D-FAAD50E08C08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1605,7 +1579,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1620,7 +1593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{602AAA28-BE21-4685-A653-96F96AA48C55}" type="CELLRANGE">
+                    <a:fld id="{7441C675-09F5-4750-AFE8-6D2698E3CB9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1639,7 +1612,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2443,7 +2415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF32A3A5-518F-4226-AD1F-E6BE7AAFC6D2}" type="CELLRANGE">
+                    <a:fld id="{85B265C3-866A-4FA8-A2E4-501CE7C7444B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2475,7 +2447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05EC9713-8622-4E52-900E-8982232A7A44}" type="CELLRANGE">
+                    <a:fld id="{95B66DB6-C8AF-4265-B82C-6087A41C4780}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2508,7 +2480,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67992995-0776-4D9F-A00C-1350B35C9B89}" type="CELLRANGE">
+                    <a:fld id="{E131B80D-1238-4498-B3DF-5B3D15780BA3}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2541,7 +2513,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3DEBC2C-0B3B-4A1D-A337-5B9505D1A7AF}" type="CELLRANGE">
+                    <a:fld id="{C94C17D7-8790-467C-AA1F-06D1DEFAB554}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2574,7 +2546,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EEBF7EA-8171-442F-993E-013A78C3B5B3}" type="CELLRANGE">
+                    <a:fld id="{6A329269-849C-43B4-BE43-86B74149809E}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2607,7 +2579,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20A14944-E790-4549-8B06-E907AEE4342E}" type="CELLRANGE">
+                    <a:fld id="{3053D53D-1AC3-4B52-B740-3F550DEE614B}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2640,7 +2612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B1F2A6B-E4A3-4787-A2F2-26E2C25B6427}" type="CELLRANGE">
+                    <a:fld id="{3B09793E-9F1E-422D-9E55-1B064C1AA467}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2673,7 +2645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F655306D-103A-434E-A49A-3DE78FC7FC20}" type="CELLRANGE">
+                    <a:fld id="{A9D01384-9B7F-460B-ADE4-C9C9C29544AE}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2706,7 +2678,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{492DA943-1EFB-4605-903D-F2D163FC69BD}" type="CELLRANGE">
+                    <a:fld id="{47CA14E0-1499-42E7-B766-216AD229405C}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2739,7 +2711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5771822-F6B2-4ECA-BF18-93EFAAB770DF}" type="CELLRANGE">
+                    <a:fld id="{0EF56F8E-1C99-4489-8735-AC5DBDA37EC4}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2772,7 +2744,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C76B1A2-98A2-43F2-8DB1-F00A6D50A55C}" type="CELLRANGE">
+                    <a:fld id="{A1E20B6B-673B-4A02-8829-0C42B94BF4ED}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2805,7 +2777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3BEAA30-F14C-49BE-A3DA-1EDF393D6B63}" type="CELLRANGE">
+                    <a:fld id="{7BDC1E50-5C53-441B-A023-07EFA2314654}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2838,7 +2810,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E025AC9-906A-4C23-8CF3-C38A5FE667CF}" type="CELLRANGE">
+                    <a:fld id="{6E705AEB-8AFD-4BCF-9319-5E9915622C9B}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2871,7 +2843,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E37290A-4115-4136-9AFA-4CC21B84DE73}" type="CELLRANGE">
+                    <a:fld id="{ED800D5C-EAF3-40FC-80B0-B942BB460F94}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2904,7 +2876,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31CE3139-CC44-4948-899A-80551A5579ED}" type="CELLRANGE">
+                    <a:fld id="{38110492-C070-4AAC-8E74-AE8CA7C6E228}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2937,7 +2909,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40B31333-B5AD-424B-8ABF-4E314D517848}" type="CELLRANGE">
+                    <a:fld id="{ABE14F90-5D47-4616-9B71-F63BC21EAD65}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2970,7 +2942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D270BE2-5273-47AD-92C3-19F457A8613E}" type="CELLRANGE">
+                    <a:fld id="{92168D8D-E182-4FD0-979F-DE4EFE774E60}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3003,7 +2975,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B96C4796-DF92-4425-8926-545F251CC5A7}" type="CELLRANGE">
+                    <a:fld id="{7D9D3A4C-219D-43B9-8B0E-4D9A63EC0ACD}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3036,7 +3008,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DD24C83-8F32-4E9E-849F-493177595361}" type="CELLRANGE">
+                    <a:fld id="{F5372BB6-1A1C-4D15-BF60-C4ED7FE0E56B}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3069,7 +3041,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08DCE3F8-874E-4687-BC36-3973DF4A3D41}" type="CELLRANGE">
+                    <a:fld id="{A61233D3-8F3A-4C4B-8043-E3DC346F51B1}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3102,7 +3074,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6138057B-4797-4E44-8416-6F07A615B518}" type="CELLRANGE">
+                    <a:fld id="{795E7BCE-7F6F-44FE-B743-B21AD996F145}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3135,7 +3107,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A0BA993-1133-4D51-BB47-731E1097EAC6}" type="CELLRANGE">
+                    <a:fld id="{CD062FFD-6A07-4539-BF48-5451BCBC8672}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3168,7 +3140,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E21556A6-017C-469B-B6CC-D38C419F2C2F}" type="CELLRANGE">
+                    <a:fld id="{82AC771D-106A-4A47-BB7A-EC1531C92889}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3201,7 +3173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B637E42E-037D-4E38-9294-8113470D6618}" type="CELLRANGE">
+                    <a:fld id="{05FFA8AE-45A2-4E20-B55A-EA67666FA789}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3234,7 +3206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79BAFBFC-D18E-496E-B6A8-35E2F5B0B84B}" type="CELLRANGE">
+                    <a:fld id="{3B036BF5-1C3D-4698-8B85-74C2FD3454E7}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3267,7 +3239,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{555B6EE6-CD88-4229-BACB-170CD6786E0E}" type="CELLRANGE">
+                    <a:fld id="{B36D4D8D-1346-4F3B-97BA-5D2608E1D883}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3300,7 +3272,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EE2C3E1-9C44-4402-9C70-BBCA35D71A54}" type="CELLRANGE">
+                    <a:fld id="{2C8E6F55-AD19-4C06-ACBF-ABBAFBF80C0F}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3333,7 +3305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDB8B5BF-E595-4D8C-A743-E1A4AAB25591}" type="CELLRANGE">
+                    <a:fld id="{62AD3523-5EE5-4131-B89F-695731A6CDE8}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3366,7 +3338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DA3B652-B5FE-4979-B550-B017AFA8C294}" type="CELLRANGE">
+                    <a:fld id="{AA57E6CA-F31B-4A2C-B97E-07E5BCA0E563}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3399,7 +3371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0117AAB6-2866-4207-8164-7452391F7B65}" type="CELLRANGE">
+                    <a:fld id="{B8B485F9-03AA-4811-B1A5-0A67CBF06153}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3432,7 +3404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{213E317C-E91C-4177-96EB-45329E584230}" type="CELLRANGE">
+                    <a:fld id="{45876165-CDB2-46D0-A91E-405EAA6846AD}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3465,7 +3437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58DD23FA-BF26-4330-8375-B1344E667F9A}" type="CELLRANGE">
+                    <a:fld id="{45BFCC00-EACB-4CC7-93CB-530BCCA55812}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4153,7 +4125,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63A16BC7-2D5A-49A5-B9B0-3FE0AED4A2FA}" type="CELLRANGE">
+                    <a:fld id="{BF0F61F5-69AF-4FEF-864D-8AAF80D58CDD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4185,7 +4157,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{900DEC78-0C8F-46C2-A5CB-05C111F75F13}" type="CELLRANGE">
+                    <a:fld id="{0F9C005C-98CA-4122-AF33-9F87C92C7299}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4218,7 +4190,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{045AFE0C-E8BB-49BD-86B3-3DE52B354BE0}" type="CELLRANGE">
+                    <a:fld id="{41538E1E-7343-416D-AD2C-5574079C628C}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4251,7 +4223,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D8E83A3-4814-411C-A015-FC40C538CA7E}" type="CELLRANGE">
+                    <a:fld id="{B447E59F-C97C-4F0D-8559-85D892F6A6A0}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4284,7 +4256,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E026FBE6-19D1-4992-A5E1-F71994A40FB3}" type="CELLRANGE">
+                    <a:fld id="{2BC96985-F7B4-43BC-9A7F-8C0004ED6D5D}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4317,7 +4289,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72E290CC-A79D-42DD-B377-5E2E20B66C2F}" type="CELLRANGE">
+                    <a:fld id="{6C84436F-70BD-4615-A93D-9C575FC29CF5}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4350,7 +4322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32059B48-816F-4184-AA24-C26D452B7EF7}" type="CELLRANGE">
+                    <a:fld id="{36009D90-3BB0-4D78-868A-C7054367910B}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4383,7 +4355,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA52D1EB-DEE3-4B4E-99C5-8DB3DA0A9B6C}" type="CELLRANGE">
+                    <a:fld id="{C6A26206-E595-49DD-9386-A9E8F2F928F7}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4416,7 +4388,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13EF2525-AB79-43C4-9BC9-1DCF0537A5F1}" type="CELLRANGE">
+                    <a:fld id="{38440903-AA12-48C1-BC62-ABAFBD31947A}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4449,7 +4421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67100DA3-72EB-40E0-991E-B9ECEF199E7D}" type="CELLRANGE">
+                    <a:fld id="{A0D8A349-D179-41C3-8D73-9DD426F1BF03}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4482,7 +4454,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E8C901B-0B13-4F0E-A552-E64222E27D5D}" type="CELLRANGE">
+                    <a:fld id="{DDFCBC42-2D18-40E6-BA4D-0549282919F2}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4515,7 +4487,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1318565-015E-42C4-A609-8D549986DDC8}" type="CELLRANGE">
+                    <a:fld id="{5B700A6D-462A-4E86-95E3-B888A059937A}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4548,7 +4520,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{497979D4-34BC-4A25-8C80-03B24C307AE9}" type="CELLRANGE">
+                    <a:fld id="{3400B8BC-D787-4CB8-8ACA-42B0B2D2307F}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4581,7 +4553,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D2EEB5F-50E0-4AB7-B4D8-2B70F4AC0792}" type="CELLRANGE">
+                    <a:fld id="{A88FC39D-237F-4BCA-9551-1233D5203F0D}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4614,7 +4586,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{138793E1-7E08-4011-97BC-961E0E806B90}" type="CELLRANGE">
+                    <a:fld id="{82F51943-9063-4C97-9676-B6B38D7CE47E}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4647,7 +4619,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{651654FA-DFD6-4B75-AFAF-2BE2B9FF62C4}" type="CELLRANGE">
+                    <a:fld id="{AE03892E-F662-4A6B-B1A1-A50C8CDA74AC}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4680,7 +4652,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{009BDB78-862A-4CA4-8D3F-559FA3147E56}" type="CELLRANGE">
+                    <a:fld id="{078438EC-4D7A-402E-BD6C-D96DDBFAA6C0}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4713,7 +4685,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04E20E98-D873-496A-9DA8-E09770BC5F6C}" type="CELLRANGE">
+                    <a:fld id="{7FB4D391-C3E4-4C00-82F9-1E0739A1115F}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4746,7 +4718,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D60F62AC-24AD-4579-881E-71475B3643E2}" type="CELLRANGE">
+                    <a:fld id="{2B6A9C7D-C550-4030-B095-CA2BFCD184E1}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4779,7 +4751,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C17991C9-4B50-4B38-8711-EA7F85BDF760}" type="CELLRANGE">
+                    <a:fld id="{299AF7E2-5577-478F-991C-0CA772B8044A}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4812,7 +4784,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{026CF55D-FE40-45A8-A9CC-6C7354D7F476}" type="CELLRANGE">
+                    <a:fld id="{1D0D4A87-B7B1-432A-A178-EB4942DB0020}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4845,7 +4817,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9D2902A-D8F2-43BE-80FF-BBB722B11BD4}" type="CELLRANGE">
+                    <a:fld id="{23545CDB-E8AD-4D46-89A6-7178DB1E28A2}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4878,7 +4850,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11921ED8-6083-4D78-A349-91842B7FB963}" type="CELLRANGE">
+                    <a:fld id="{ACBACB99-7DBE-49F9-96BF-6563EEFCA504}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4911,7 +4883,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D4E80D3-4904-450A-ADD9-F7CF89E84F2C}" type="CELLRANGE">
+                    <a:fld id="{5CE2FCC2-884F-49F2-A59A-6CE0C9C55D0B}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4944,7 +4916,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AF91063-EE3C-4C18-A6EE-E6B30D9D04A7}" type="CELLRANGE">
+                    <a:fld id="{9C65B6E5-D1C6-4801-A922-DB483158104F}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4977,7 +4949,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EC716DA-7714-4A35-8D4B-F550D147B7C2}" type="CELLRANGE">
+                    <a:fld id="{E45FEEF1-A3D0-413B-8187-80523377EC21}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5010,7 +4982,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E2E0E4B-74C4-481F-88C8-480F61B1A3EA}" type="CELLRANGE">
+                    <a:fld id="{38BCB041-AD01-47D6-9715-7FFCAAE0E766}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5043,7 +5015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C3319BC-3477-4321-832D-D40CAEA9254B}" type="CELLRANGE">
+                    <a:fld id="{A412C57E-1738-4F64-A08F-575CA534FFB8}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5076,7 +5048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A319DE2-5A76-436A-AACE-26CDE0366BE8}" type="CELLRANGE">
+                    <a:fld id="{734C679F-A490-4DFD-A64E-1519EE0C6E2B}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5109,7 +5081,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20CC044F-715C-4927-B524-4FF23F5262A5}" type="CELLRANGE">
+                    <a:fld id="{930B94E7-F0DD-4285-9417-54A16CC9879A}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5142,7 +5114,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{28DAA783-ED68-491E-B454-66794EAE2073}" type="CELLRANGE">
+                    <a:fld id="{B24B1AB0-3F8B-4DF2-AADF-B29C7EF7C4AB}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5175,7 +5147,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97AE6C77-7790-4DCB-8747-55D2711A4861}" type="CELLRANGE">
+                    <a:fld id="{B3568AF1-C5DC-4F05-9CD9-B42B1FCF8726}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5863,7 +5835,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6433B8C-24EB-4969-B723-9F70478232FD}" type="CELLRANGE">
+                    <a:fld id="{D8B7828F-42FB-48C3-8105-A0DEA3CF62C6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5895,7 +5867,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8D51A88-18C8-4D47-8005-E5BDD86C1A2F}" type="CELLRANGE">
+                    <a:fld id="{73CD9617-982A-4E43-BE7D-A23F88FA3A34}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5928,7 +5900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CF8D871-F6F6-4064-8442-E8674E103AED}" type="CELLRANGE">
+                    <a:fld id="{CF993498-7792-4D0C-9907-1AD36395E5A5}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5961,7 +5933,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4EDF82F0-DB38-460A-97BB-18B81D7BCA5D}" type="CELLRANGE">
+                    <a:fld id="{11F67FEE-3619-4E56-88E9-2D062BBBE1E3}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5994,7 +5966,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BDBD672-9DB5-4DF5-BF78-FEB86C5A4F7E}" type="CELLRANGE">
+                    <a:fld id="{FE7D813E-3467-4ADD-8357-8422FA715D9E}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6027,7 +5999,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{26B3DB18-8E53-43C2-A938-1B1FFC1AB1B8}" type="CELLRANGE">
+                    <a:fld id="{B4121CDE-6EBF-4288-931A-F8C66CB5B7A3}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6060,7 +6032,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AEEE694-354A-48D7-8A40-AB76973FA482}" type="CELLRANGE">
+                    <a:fld id="{B94392FD-4D40-4BF8-83D9-6316C4A815DD}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6093,7 +6065,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44A8B01E-D62C-45D1-BC44-C1F2A4D0D6C2}" type="CELLRANGE">
+                    <a:fld id="{075DA239-AAEA-49F6-A138-F9241AB8AC42}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6126,7 +6098,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A0FD0E3A-B3C6-4AFB-81C2-D3E2AB7CFF08}" type="CELLRANGE">
+                    <a:fld id="{B505EED9-55CF-4334-B183-DF2A6A36586D}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6159,7 +6131,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6401F03-2D8F-4EE7-B39A-BAF5E46331C7}" type="CELLRANGE">
+                    <a:fld id="{FB02918B-4CC8-4AA7-AFAA-053AA00C783C}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6192,7 +6164,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE9D7BDE-2D2E-46DC-964A-0DE872AD54E1}" type="CELLRANGE">
+                    <a:fld id="{333DEDCF-4B1A-46E1-9A4B-0EBC9667E7DD}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6225,7 +6197,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F6A7A72-A998-44EE-BF0E-815910212B14}" type="CELLRANGE">
+                    <a:fld id="{5AADBE6A-B3BB-4744-B0BA-1D5F6AAB186F}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6258,7 +6230,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E884C37-6901-475F-9F9A-FFAC463CA041}" type="CELLRANGE">
+                    <a:fld id="{D1A00679-BDAD-45AD-9E2A-3CCDDF96285C}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6291,7 +6263,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F985E44-9F6F-40DA-A529-A0A8932EAF47}" type="CELLRANGE">
+                    <a:fld id="{A2750815-232D-48C8-BE8F-65B50CEC0D22}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6324,7 +6296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C665557-EF7A-4A00-AC95-24D2F5F9AB4B}" type="CELLRANGE">
+                    <a:fld id="{B95B7A46-B708-47BD-8A88-A206C889B0D2}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6357,7 +6329,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23F70432-2D94-44C3-873D-2525F3EF190D}" type="CELLRANGE">
+                    <a:fld id="{F34007F6-3C24-45B7-B092-42C00EBFA9F1}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6390,7 +6362,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C2E4497-4D11-470E-992A-109E54AC2E9B}" type="CELLRANGE">
+                    <a:fld id="{983648EF-6FEA-4125-BAEE-63D3E7C9597E}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6423,7 +6395,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7E4C21D-812C-4057-8B79-2D6A3C9D9559}" type="CELLRANGE">
+                    <a:fld id="{CBDBE707-0B41-4BAF-B48D-B8FF86B068C0}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6456,7 +6428,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F53C6E37-2D1C-4BD6-BAD9-4C4CA6372625}" type="CELLRANGE">
+                    <a:fld id="{B2B33BA6-184C-4D8E-92F4-F5C952E008DA}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6489,7 +6461,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E83DEF6D-E410-4EEE-BC8A-45F14CD0FC11}" type="CELLRANGE">
+                    <a:fld id="{DDAD7037-FD22-40FE-B83B-BF6B2E6AE605}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6522,7 +6494,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DAE71945-2EBC-4A14-8203-AE4E6CFF2FCE}" type="CELLRANGE">
+                    <a:fld id="{3DB55499-6F99-483A-9225-B032940A255E}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6555,7 +6527,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F59D861B-9F95-4464-B5CE-9DEFDA780D41}" type="CELLRANGE">
+                    <a:fld id="{8A9B3A3C-BCEA-407B-A16D-2078004CE0CA}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6588,7 +6560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B710161E-DB3A-408A-840D-A202CF7151F2}" type="CELLRANGE">
+                    <a:fld id="{92462565-EEB9-42E6-AE31-F240E2EF76AC}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6621,7 +6593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D48BC5BF-EE70-48D2-B8E8-2F4CCC3DE539}" type="CELLRANGE">
+                    <a:fld id="{E1C4EBD3-3A90-41C0-B6CC-5A0804B966AC}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6654,7 +6626,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FF8578B-C262-47AD-ACD0-C6F3DB6F23F7}" type="CELLRANGE">
+                    <a:fld id="{05AD3128-FA2B-4F73-A3A8-50DFF57FC094}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6687,7 +6659,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A77BBF1-0504-4E7A-992F-8E81EF7BB9FB}" type="CELLRANGE">
+                    <a:fld id="{C09E8873-6E4F-4F59-A308-1BCDCD075DE4}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6720,7 +6692,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{122BFB44-8CCA-4FF0-96BE-E056F14D95DE}" type="CELLRANGE">
+                    <a:fld id="{E9A3B906-60EC-4E5F-819D-AA727562D78C}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6753,7 +6725,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7537A1EC-4AE7-4C6B-AA5A-AD28227EE429}" type="CELLRANGE">
+                    <a:fld id="{D83F1C2C-7F80-4DB2-ABD7-41CAA271B978}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6786,7 +6758,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F98344C7-A54F-44F8-A31F-3B3AD242B640}" type="CELLRANGE">
+                    <a:fld id="{2FD27948-9691-4644-B343-141D0DB54A42}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6819,7 +6791,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB05A4A6-BAFF-4F9F-9AB4-3908D111CE05}" type="CELLRANGE">
+                    <a:fld id="{3F29C452-43DC-4AAF-96B3-59B0AA5DD2EC}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6852,7 +6824,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71BF4615-E9DD-4280-96AF-99EC15B88DD7}" type="CELLRANGE">
+                    <a:fld id="{7105A2F5-0AB9-4681-A265-88176E3E13B3}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6885,7 +6857,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{505405D1-0E9A-42DF-853C-2E32C5364C10}" type="CELLRANGE">
+                    <a:fld id="{3B862ADB-E546-4006-BD5C-EE708B0FBF94}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7573,7 +7545,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4082C3F-C5D4-43ED-A518-61AC2B8502B4}" type="CELLRANGE">
+                    <a:fld id="{F63D9817-F74F-4BB1-A1FA-A866B5FEF979}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7605,7 +7577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{637BB742-CBAA-4FE8-87A4-199DF14E5282}" type="CELLRANGE">
+                    <a:fld id="{E1165B04-8495-45D6-8149-218E08742EA9}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7638,7 +7610,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54DEE20C-877A-486B-9A70-6E7E19D5F37F}" type="CELLRANGE">
+                    <a:fld id="{735B9F9F-CD2C-4E20-AFFD-F69C48170129}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7671,7 +7643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AA3F40F-D8DF-41F7-BFE7-2EAD47D40FC5}" type="CELLRANGE">
+                    <a:fld id="{3C29337A-6894-46A4-BAC7-3244018DE50F}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7704,7 +7676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{579316AC-9312-4CC9-B915-B3EF713CA64E}" type="CELLRANGE">
+                    <a:fld id="{26BEDF92-09E1-4DA9-8851-5291E6FB0A34}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7737,7 +7709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B4C7A18-20E5-4C2E-805E-B31316BA5FF6}" type="CELLRANGE">
+                    <a:fld id="{80167047-5A8C-4A70-8485-FF29743A13BC}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7770,7 +7742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{279C1EF0-0ADD-4791-899F-F56606FE2BFB}" type="CELLRANGE">
+                    <a:fld id="{6B242FBE-E6A6-4B9A-BFCF-30025AD41787}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7803,7 +7775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2765768E-12E4-4D39-948A-D9C012F58207}" type="CELLRANGE">
+                    <a:fld id="{2AA6C5B3-C77B-4CC5-8B8A-252DB55785CB}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7836,7 +7808,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1475EC4C-1034-4239-92E2-DEFFFB3B1049}" type="CELLRANGE">
+                    <a:fld id="{4DEC6C34-1387-4CD0-B777-AA20B096238C}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7869,7 +7841,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83425631-3312-416B-9C38-64DFD05F7E6B}" type="CELLRANGE">
+                    <a:fld id="{EA006565-F398-431A-B307-A245C99F6FBD}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7902,7 +7874,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3D99BEE-4FFC-482B-B125-67CC1E00B89C}" type="CELLRANGE">
+                    <a:fld id="{CEA213E4-9E6D-4907-89EF-B56F6F15F3E0}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7935,7 +7907,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D87F9596-D70D-4CB5-B806-C799BB3AD1EC}" type="CELLRANGE">
+                    <a:fld id="{2E0A7131-3322-41F5-96F6-4B7A0727DC6F}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7968,7 +7940,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C64AF1E9-C861-4F96-8F11-9DA3FA2A7DE8}" type="CELLRANGE">
+                    <a:fld id="{F0D8EF26-29FB-4911-8366-09C372B50868}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8001,7 +7973,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7C044AD-6B02-4984-BE0E-5DDBB55C30C1}" type="CELLRANGE">
+                    <a:fld id="{1585C2AF-F914-4BC2-A3AE-2DC12905DEFA}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8034,7 +8006,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{936D11DA-EEDF-4665-9BEB-DB106A4FD039}" type="CELLRANGE">
+                    <a:fld id="{F6909DA2-5B59-4F18-B505-1E2412D8E1FE}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8067,7 +8039,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B35BF59C-F748-4C72-8E5A-D688346B360A}" type="CELLRANGE">
+                    <a:fld id="{F625A230-7AD6-4A6A-86BB-AD18A34960FF}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8100,7 +8072,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1461A9B2-8671-4369-A2EC-EB14AEFA0218}" type="CELLRANGE">
+                    <a:fld id="{6DA38E4A-2400-414C-804E-91A63FC07AA8}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8133,7 +8105,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B4F9082-FF79-43CF-A270-5F45C022E380}" type="CELLRANGE">
+                    <a:fld id="{0B00D93B-BC7B-4BA0-8186-F4CB393F14D7}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8166,7 +8138,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE8C0463-86E0-4E49-91D9-0E7DB8E1AF0F}" type="CELLRANGE">
+                    <a:fld id="{CBAB71A5-2FC1-453D-960D-DDD2749681C5}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8199,7 +8171,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31202F3B-C6DD-443E-A86F-C8E8DF037D87}" type="CELLRANGE">
+                    <a:fld id="{2579ED14-C8E7-4DC9-B9CB-F31337FF6C46}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8232,7 +8204,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C966A9B1-2BA6-4287-8735-F7EB17146306}" type="CELLRANGE">
+                    <a:fld id="{1A783C34-D866-4097-B4A8-07FEED00D9A4}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8265,7 +8237,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64FBBDEB-73EC-44D2-8E57-7B50B0FDF31E}" type="CELLRANGE">
+                    <a:fld id="{D04E0975-9124-422B-91B7-760ACB86BC51}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8298,7 +8270,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B29D916D-6D24-4ABD-9154-8FAE2E910506}" type="CELLRANGE">
+                    <a:fld id="{3B6E9B90-D114-40F6-86C9-5C3B674C2AAE}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8331,7 +8303,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4810A213-898A-4DBE-B15A-32A970E0CC8B}" type="CELLRANGE">
+                    <a:fld id="{36AA6885-9C34-4529-A383-BA609466631C}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8364,7 +8336,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4E77E6A-1B71-409A-83C9-291CE67B1D7D}" type="CELLRANGE">
+                    <a:fld id="{BD72C2E2-DDA8-4C70-AD85-22B3993201F0}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8397,7 +8369,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{59B2BB1C-65F9-4A33-9C97-7DF7336DB580}" type="CELLRANGE">
+                    <a:fld id="{50CD95D2-5580-4BBC-9CD0-C80E36EB9D61}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8430,7 +8402,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F996710E-66DE-4CD4-94C8-4D6DFCECD032}" type="CELLRANGE">
+                    <a:fld id="{D7A50586-52A8-4165-A704-1B8542D48BCD}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8463,7 +8435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BE2193D-203C-4DC5-9F63-0FD66BC5FE6D}" type="CELLRANGE">
+                    <a:fld id="{149C8093-402A-4ACB-8B2C-2B39B891A10E}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8496,7 +8468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83663441-C531-4FF2-9E4D-CE9936F50783}" type="CELLRANGE">
+                    <a:fld id="{53DDC753-E389-4C5C-9693-0BAEC9AC6BF9}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8529,7 +8501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FAA7F54-AE1E-4BD8-9376-654DE6B4AFDB}" type="CELLRANGE">
+                    <a:fld id="{294C39BA-79A3-4C2C-9AF0-897F0F5AEDA4}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8562,7 +8534,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{914C915C-F1CC-4C5D-903A-25D3E03BBA7C}" type="CELLRANGE">
+                    <a:fld id="{0C929385-0737-4782-B678-3FAF4321B514}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8595,7 +8567,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EA719D8-A9DD-4880-B78D-8D58A7DF219F}" type="CELLRANGE">
+                    <a:fld id="{ED1414AA-FBDB-4B37-B96A-8E7E8264147E}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9283,7 +9255,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D423FF52-0C1A-4B8B-8260-D5D327464490}" type="CELLRANGE">
+                    <a:fld id="{A37A585F-4780-442C-ADC8-CBC1938F867A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9315,7 +9287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2629FC7E-B50A-4D1B-B60B-6673A12A176C}" type="CELLRANGE">
+                    <a:fld id="{1DC7415E-6AA5-4290-B57D-99EDEB818C82}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9348,7 +9320,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43EAACE9-2DEB-4F9F-92BB-79189F32A9E8}" type="CELLRANGE">
+                    <a:fld id="{F02FAFE7-325D-476E-81E6-5D8A91AEF66B}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9381,7 +9353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05991155-6329-43CD-8ABA-047BCF4C9BA5}" type="CELLRANGE">
+                    <a:fld id="{E0B3D7DA-BCD7-4905-9354-45B412325338}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9414,7 +9386,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A923CC3-C96D-4FCB-97EC-7D08B5F9D7FB}" type="CELLRANGE">
+                    <a:fld id="{4D92E732-03D0-4313-A513-A0C17DBD1489}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9447,7 +9419,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4346904B-5C00-491E-94CC-528953410BAB}" type="CELLRANGE">
+                    <a:fld id="{DD60F359-372C-48F2-BD91-01DA15430F9A}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9480,7 +9452,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69F0D47C-AA3D-4D7C-A8D3-C9D606179987}" type="CELLRANGE">
+                    <a:fld id="{334F0C23-DF49-474F-90AA-AE4AC7AF2E77}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9513,7 +9485,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDEB0B9C-3904-48C1-99AE-C2503511B1AE}" type="CELLRANGE">
+                    <a:fld id="{AC3904CE-B9A4-4710-B328-8A646213FAA4}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9546,7 +9518,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22D48AAF-D4E0-4A70-BAD7-9546E8620923}" type="CELLRANGE">
+                    <a:fld id="{645EA2C9-7728-46A9-972D-5D0270DDCE67}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9579,7 +9551,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9109735B-24D7-4199-B8BD-74A1035A4997}" type="CELLRANGE">
+                    <a:fld id="{58856249-D3FB-4F10-822C-0CA619F0237E}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9612,7 +9584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A687E453-D049-4D1D-BBA5-9BE1119C8EA3}" type="CELLRANGE">
+                    <a:fld id="{4754A9A4-996E-4063-981A-17BCAC7C6494}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9645,7 +9617,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{964817ED-6957-419D-A14D-67FC2A0EB52C}" type="CELLRANGE">
+                    <a:fld id="{BE9470C3-D6BA-4239-AD70-E9082B63FAB8}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9678,7 +9650,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B81AB4E-6DD1-4851-99AB-93633EA22685}" type="CELLRANGE">
+                    <a:fld id="{DF23D094-3C1A-49CC-AAEC-419C415BA3C3}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9711,7 +9683,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A6834D4-D6E6-4C28-B013-6E80B42519A6}" type="CELLRANGE">
+                    <a:fld id="{958435E5-F638-42A5-BA5D-62E88E421C77}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9744,7 +9716,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E422986-96C4-4A33-A238-A5CFBC265958}" type="CELLRANGE">
+                    <a:fld id="{62CAA567-1E43-4B39-B204-87C1E80FE93F}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9777,7 +9749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA72A51C-9E26-4806-9C2E-A430A1054431}" type="CELLRANGE">
+                    <a:fld id="{678797A0-C988-4679-A988-F7CB0B708F04}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9810,7 +9782,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CBBAC7A-FEF8-45F4-B6B1-B4E366099282}" type="CELLRANGE">
+                    <a:fld id="{19E1DD1B-E153-4971-8264-40933BCCB57D}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9843,7 +9815,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86147461-A703-4B4F-8864-A9869D1E3459}" type="CELLRANGE">
+                    <a:fld id="{96294B20-B51E-4D99-AE00-A9C968C4661E}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9876,7 +9848,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C646DA8-F834-4645-BE09-E3E7743E6467}" type="CELLRANGE">
+                    <a:fld id="{454033C1-BDF8-4896-80A2-B5559090101A}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9909,7 +9881,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3A61D8F-F8B7-4E59-9F13-8E461D66C484}" type="CELLRANGE">
+                    <a:fld id="{C75F5DDE-9306-4D43-8A0A-86FB1D22928A}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9942,7 +9914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51A566A5-83D9-4E38-BB50-FB507527B061}" type="CELLRANGE">
+                    <a:fld id="{5E3DC170-A35C-44F6-AC4D-283480B8181B}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9975,7 +9947,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79D8FC87-B4E1-47DA-B139-F00DC18F8E49}" type="CELLRANGE">
+                    <a:fld id="{891F2DF5-7D01-4D7B-9CB0-AB66FE4C4B21}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10008,7 +9980,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5BC0C90-81BE-487E-9DAF-C07217252CD3}" type="CELLRANGE">
+                    <a:fld id="{F98643C6-EAE0-4935-9CEA-0C680CFA7998}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10041,7 +10013,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F10BB099-4161-431B-8665-D7CBF4C9CAF3}" type="CELLRANGE">
+                    <a:fld id="{229E7803-28DD-4892-AC49-1FDD936AE0F2}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10074,7 +10046,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B56BCB0A-97A0-4440-A888-D09DB18AC867}" type="CELLRANGE">
+                    <a:fld id="{0BD313A5-B703-4BA3-8652-40F311EB3AE1}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10107,7 +10079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABEB06A9-DB1B-402C-884C-2738B9A15CC7}" type="CELLRANGE">
+                    <a:fld id="{23C610FC-BEDD-4FD4-92BD-664FB83447D0}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10140,7 +10112,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C348178-FB38-4D59-8489-1E77FAF4F179}" type="CELLRANGE">
+                    <a:fld id="{4B48E997-CDE9-4ABD-9440-69164B963E91}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10173,7 +10145,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{180C73E3-63C8-4071-803E-FAFBBA4F9C14}" type="CELLRANGE">
+                    <a:fld id="{F41F139A-97D3-4C4F-8966-2A17BCBC2F45}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10206,7 +10178,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B69697A3-2441-45A4-AD28-A825066B5E61}" type="CELLRANGE">
+                    <a:fld id="{C93089E6-3614-4C81-A6B1-2B9B7F16713F}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10239,7 +10211,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9ED6CA1-B032-4C6E-BA04-0861193A00FE}" type="CELLRANGE">
+                    <a:fld id="{225B31FA-EBEF-4C96-A634-3C8D2FC4D746}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10272,7 +10244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92A87044-D473-4408-ADDF-1C572C01DAD2}" type="CELLRANGE">
+                    <a:fld id="{D3A4750E-1122-476F-85D3-B6547BCF7D73}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10305,7 +10277,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29E4732D-41E5-4C6D-9C86-761CBDA8D708}" type="CELLRANGE">
+                    <a:fld id="{43B847E6-AEA1-4A10-BBA5-8C18F2A9C565}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11011,7 +10983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC1C998A-0E6C-4637-B4AE-9319042C0091}" type="CELLRANGE">
+                    <a:fld id="{37743E65-97BF-4976-BAF8-FF81FF02A499}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11044,7 +11016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B467C11-C16D-4BBA-832A-C60CB51E6162}" type="CELLRANGE">
+                    <a:fld id="{9302440F-B2C6-49BE-A3D0-3B5D69808649}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11078,7 +11050,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6856343B-BF42-44A2-9C6E-B0098A383261}" type="CELLRANGE">
+                    <a:fld id="{95E8D024-D6AC-4657-8412-DB2434D10CEE}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11112,7 +11084,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4745D1FF-D305-4FBA-B1F4-407F47D4DBE4}" type="CELLRANGE">
+                    <a:fld id="{CBFC85DE-6E9B-40E9-A838-79809FD581B4}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11146,7 +11118,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFDDC387-D93B-4D7A-9B87-DA1B51347CA7}" type="CELLRANGE">
+                    <a:fld id="{D3FABDFD-B42B-463A-9AB2-4549F65DD8C5}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11180,7 +11152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30ABEB11-5DB4-4525-A768-23BC1372BD1F}" type="CELLRANGE">
+                    <a:fld id="{90D3D51B-0E9C-48BE-B13F-B16DE3AA0FD5}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11214,7 +11186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1534063F-3373-4E7B-B667-63C7B9AC88A7}" type="CELLRANGE">
+                    <a:fld id="{F241945E-DBA8-4A69-A810-38EEC7BDBDF3}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11248,7 +11220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A32C8347-9C2D-46FD-A087-2AF33346ED4A}" type="CELLRANGE">
+                    <a:fld id="{F5978420-F753-47F1-936C-6E78B53C13B4}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11282,7 +11254,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13EE5F24-4956-40E5-B414-304C1E087E5C}" type="CELLRANGE">
+                    <a:fld id="{480213A2-BEFF-4940-A3F9-DDA8858C6824}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11316,7 +11288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E80CB864-E311-429E-987F-AFA584C1322B}" type="CELLRANGE">
+                    <a:fld id="{6F4E584D-BD3D-4282-8962-5C1ABD9C755F}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11350,7 +11322,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2450EF44-525E-4CF0-AC86-3075ECC5B503}" type="CELLRANGE">
+                    <a:fld id="{48B245BC-7E2B-4514-BBE5-250B7A6FE7B5}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11384,7 +11356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC417CB0-8A7E-4833-99BA-76374F843E4D}" type="CELLRANGE">
+                    <a:fld id="{40C6D835-69B1-4764-9EC0-E4C97F249678}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11418,7 +11390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFD4A66D-E15F-496A-A3DA-72574EC94075}" type="CELLRANGE">
+                    <a:fld id="{C27E9898-09D2-444A-8348-EC7EEA61F12E}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11452,7 +11424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79CCC2B0-1D8F-4AC7-8F23-1869C9712697}" type="CELLRANGE">
+                    <a:fld id="{EC88E071-2829-464E-A566-145F91ED6640}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11486,7 +11458,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70B59306-45C9-44AF-9C03-F90D47F61890}" type="CELLRANGE">
+                    <a:fld id="{189042BD-0F1B-463D-A77B-88D1F5650244}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11520,7 +11492,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20161935-1005-4A1A-BD14-CE9B83B9DCE5}" type="CELLRANGE">
+                    <a:fld id="{ADCAE5FA-FCE6-471C-8FD2-8904372ED7A1}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11554,7 +11526,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D419197-B1E2-4EB8-A8BC-533152CD34ED}" type="CELLRANGE">
+                    <a:fld id="{631DACD0-1805-4F2D-9B8A-93C9EE9626AC}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11588,7 +11560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B68350F9-B8CB-4EB1-8661-5501E2CA3F2D}" type="CELLRANGE">
+                    <a:fld id="{9DA49783-098F-4D3D-A5BF-251B975C0321}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11622,7 +11594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32DE24AB-984F-40AA-A29D-1CCE3B300707}" type="CELLRANGE">
+                    <a:fld id="{A47D7D5C-4F8E-42B4-A79B-84AE0B1FA557}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11656,7 +11628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91AA3B75-4549-4DD3-8513-AC621DC4EDB0}" type="CELLRANGE">
+                    <a:fld id="{3DE06245-053D-4C61-956B-3D8FAF842F4B}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11690,7 +11662,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{165B928C-31D2-4F8D-98C1-ECA96414595C}" type="CELLRANGE">
+                    <a:fld id="{3ED8AC07-D5D9-4D67-A524-875959AAB111}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11724,7 +11696,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD500D35-04D1-4C5E-8E26-078E8421C11A}" type="CELLRANGE">
+                    <a:fld id="{5D140378-CBA4-4742-B0F1-05266663E0A1}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11758,7 +11730,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A26B1AE-1759-4A40-8373-374B9ED30088}" type="CELLRANGE">
+                    <a:fld id="{04E5220F-F004-4AD5-BE5B-510DCB927F75}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11792,7 +11764,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DBF744F-9AD4-4AF5-B6AC-3EFC93ECFCDD}" type="CELLRANGE">
+                    <a:fld id="{1C171C7F-FB21-4438-BEED-D3D30D844253}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11826,7 +11798,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE354BA6-CEAA-4D1D-975E-93C709962DE3}" type="CELLRANGE">
+                    <a:fld id="{97900283-6EFE-43BA-B719-2C1DB2FC6C16}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11859,7 +11831,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D8D0318-B277-4831-BE87-134D2EE639D0}" type="CELLRANGE">
+                    <a:fld id="{B42318C8-0A75-431F-86E4-F280194E61A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11892,7 +11864,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC7036D4-8497-4388-9B44-502B3AC7ADDD}" type="CELLRANGE">
+                    <a:fld id="{FCC5FF97-A548-403E-8189-D30DFE8AFDB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11925,7 +11897,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44313B1C-5117-48FA-AE0F-758B64FF6603}" type="CELLRANGE">
+                    <a:fld id="{707FB8D7-20B3-4732-B54E-8D17E0CA9553}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11959,7 +11931,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65B68C42-44C0-43D1-980B-53845F63603C}" type="CELLRANGE">
+                    <a:fld id="{5BA50A45-00D6-4EAF-A750-FAF145461BB8}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11993,7 +11965,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8552B60B-AD34-43B7-9547-113B18C61427}" type="CELLRANGE">
+                    <a:fld id="{DF25BE2E-A573-4B74-A581-ACDD69B6667F}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12027,7 +11999,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A36F535B-AC7D-400A-B773-600BDC438660}" type="CELLRANGE">
+                    <a:fld id="{50ED751A-6CFA-481D-84A3-8C839C8A9528}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12061,7 +12033,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BCCFC7E4-3213-4D5E-9B29-348C294811B6}" type="CELLRANGE">
+                    <a:fld id="{D31B4666-BE1C-4D09-865C-81ED4EFBD3C0}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12884,7 +12856,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F619C5F-6F8F-4C8C-9F33-6B4B76AB7041}" type="CELLRANGE">
+                    <a:fld id="{A6066C78-717F-4D24-BFD1-9299594244E6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12903,7 +12875,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12918,7 +12889,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07A59D9E-F921-4A29-848B-5A00183C7888}" type="CELLRANGE">
+                    <a:fld id="{43DDA427-3756-4D53-A423-838D6F4A5E36}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12937,7 +12908,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12952,7 +12922,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2377C71-2293-4C04-AFEB-DAA196025066}" type="CELLRANGE">
+                    <a:fld id="{A27B2639-0F78-4537-A510-F72AB988E47D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12971,7 +12941,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -12986,7 +12955,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1494DE4F-024A-4C35-88AA-158D4CD9A96D}" type="CELLRANGE">
+                    <a:fld id="{12B66649-F14E-41AD-AF7E-92A50233E66F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13005,7 +12974,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13020,7 +12988,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CEF68FC-4051-4BFD-8F2F-8F45990D74A1}" type="CELLRANGE">
+                    <a:fld id="{DD1C8C9E-C1B0-499C-BAD4-2858A63A4724}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13039,7 +13007,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13054,7 +13021,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA0C0CE7-C4F0-4679-84EC-0E99E84D439F}" type="CELLRANGE">
+                    <a:fld id="{8216EEF8-C557-4298-ACA1-EBD3D65CC27F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13073,7 +13040,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13088,7 +13054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05D68E37-DD97-4EA5-BC61-E4A1F10B5BD5}" type="CELLRANGE">
+                    <a:fld id="{F7848A85-1CBB-4270-A4DC-7775C85A6E92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13107,7 +13073,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13122,7 +13087,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB4B25ED-F8F2-4DCF-8BC4-3EE4E5BA4CA5}" type="CELLRANGE">
+                    <a:fld id="{6D60EA98-E5B9-41F7-9A02-DE8FD851EFC2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13141,7 +13106,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13156,7 +13120,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBBBD00F-341D-4EFD-B3B0-B450B2F1CBA6}" type="CELLRANGE">
+                    <a:fld id="{067D511C-DF60-4CF8-9E7C-F359FF1B11E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13175,7 +13139,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13190,7 +13153,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{657AC907-AB39-4573-93BC-C80638367C6D}" type="CELLRANGE">
+                    <a:fld id="{14DACE92-CE9B-4D92-ACC9-B558C799804E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13209,7 +13172,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13224,7 +13186,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75C9BB5D-5DEE-49A4-A178-10FD651E438B}" type="CELLRANGE">
+                    <a:fld id="{3462E80C-F91B-4EF3-9547-C8523F885473}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13243,7 +13205,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13258,7 +13219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D6248B1-5FD7-40C6-9BB2-7B4FB66E8974}" type="CELLRANGE">
+                    <a:fld id="{8ED9C44A-4ADA-4D45-9002-C87337849149}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13277,7 +13238,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13292,7 +13252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{819C5774-C7FA-4164-82E7-F2AF0DBB05BB}" type="CELLRANGE">
+                    <a:fld id="{FA4B7535-7328-4CA1-9BF6-3AD9CF333B08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13311,7 +13271,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13326,7 +13285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BA80DD2-1718-4FFE-9E3C-F8DA357AC9CC}" type="CELLRANGE">
+                    <a:fld id="{CA7E7678-8E57-4BC5-B159-2B6D74A0FBC5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13345,7 +13304,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13360,7 +13318,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{065280BA-2CE9-4215-93A4-9B438A506374}" type="CELLRANGE">
+                    <a:fld id="{3C516C80-F8A4-4E60-8DB1-DE8071768ED8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13379,7 +13337,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13394,7 +13351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E45BE2C-7886-4F59-A7BF-4C945F6ACA31}" type="CELLRANGE">
+                    <a:fld id="{4FA7BE54-67A8-4FA5-814C-5BEDC79E5E66}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13413,7 +13370,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13428,7 +13384,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7709384F-AD62-4289-9A3F-1E448B8D716F}" type="CELLRANGE">
+                    <a:fld id="{A2FA581E-F18F-47C2-826A-3EA1790346D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13447,7 +13403,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13462,7 +13417,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B01FD360-ADDE-4E76-B134-197F34490C75}" type="CELLRANGE">
+                    <a:fld id="{6016EFA8-96A5-4733-AA5A-5B71B59ACF40}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13481,7 +13436,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13496,7 +13450,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{012B3DD1-79F2-43B5-B103-4A3C4104282F}" type="CELLRANGE">
+                    <a:fld id="{D35FE122-CF44-4AC8-B38E-01552D2EA069}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13515,7 +13469,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13530,7 +13483,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88587E43-3C0B-4F0D-94E3-A7D88A612AD3}" type="CELLRANGE">
+                    <a:fld id="{2FC38FD2-A320-43F6-B0A7-9D77EC75D6F1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13549,7 +13502,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13564,7 +13516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{420C9CE8-22F8-4A68-98F6-BFF66F7B773A}" type="CELLRANGE">
+                    <a:fld id="{E5F0A9AD-8370-4762-9904-9C2E834F164A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13583,7 +13535,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13598,7 +13549,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{069CABB2-023F-45E6-8CF8-FE191868C25B}" type="CELLRANGE">
+                    <a:fld id="{DBF23753-0FD9-4C34-A500-0B80AB08F021}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13617,7 +13568,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13632,7 +13582,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BB8D3C9-DB5F-44ED-AF60-87338C5E3CA0}" type="CELLRANGE">
+                    <a:fld id="{6C116E27-B7C4-436E-B23A-036067AB4667}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13651,7 +13601,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13666,7 +13615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C829D19D-5E4B-40ED-8C95-A92BDBAB12FE}" type="CELLRANGE">
+                    <a:fld id="{5CAD5766-B67B-4F92-9E6F-ABD7F10B659D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13685,7 +13634,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13700,7 +13648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{902B67D8-AEC1-45F9-95DB-33F4515ED9F4}" type="CELLRANGE">
+                    <a:fld id="{65794D86-1970-4C92-AD9D-061716E89299}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13719,7 +13667,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13734,7 +13681,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C22FC00-6228-49B4-9E0C-32E893173743}" type="CELLRANGE">
+                    <a:fld id="{7110D005-C046-48E3-9CEF-07E3810933A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13753,7 +13700,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13768,7 +13714,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{650CADB8-5F56-47DB-8BD6-756D677600F6}" type="CELLRANGE">
+                    <a:fld id="{C6634F2A-9181-460C-8FAD-40A232FDA8DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13787,7 +13733,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13802,7 +13747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{840F5098-4528-4951-8D7B-EE6C8E382018}" type="CELLRANGE">
+                    <a:fld id="{83C5A55B-D50F-4CC2-81F0-97E1DB4BA1E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13821,7 +13766,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13836,7 +13780,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4F9DB6D-4EBD-4A57-ABE3-C6DEB3EF5B40}" type="CELLRANGE">
+                    <a:fld id="{064F405D-3C17-4BA9-939E-EF6AD1598227}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13855,7 +13799,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13870,7 +13813,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FD51CCE-6B58-4956-AF3C-1679C36703D5}" type="CELLRANGE">
+                    <a:fld id="{EDF95AD8-DD0D-4AE9-9676-112790326B9C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13889,7 +13832,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13904,7 +13846,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06F49608-007A-4D04-9FBF-6081565FAE54}" type="CELLRANGE">
+                    <a:fld id="{011E75D0-50EB-4195-B999-29316E94855C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13923,7 +13865,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -13938,7 +13879,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2993D8A1-F230-49FB-8182-C1DE30D046CB}" type="CELLRANGE">
+                    <a:fld id="{B84D89A2-8F10-4341-8D38-DF95A5907CA6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -13957,7 +13898,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14643,7 +14583,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4628CFE-B1C8-4B44-A39C-D3D518CBECF2}" type="CELLRANGE">
+                    <a:fld id="{A72CE923-F353-4A46-89E9-FD0B34DE390B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14661,7 +14601,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14676,7 +14615,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72119FA9-E866-49CE-88F6-701859E2C347}" type="CELLRANGE">
+                    <a:fld id="{D493E7BA-D333-4D0E-948B-5A34BEDF6B57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14694,7 +14633,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14709,7 +14647,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F99DDF11-7AED-4D47-B60B-C9C54D9F2E21}" type="CELLRANGE">
+                    <a:fld id="{ADACB62D-FD32-40D8-8892-35C590352950}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14727,7 +14665,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14742,7 +14679,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{564473FF-A4F7-4F2B-A7C6-49BD69615889}" type="CELLRANGE">
+                    <a:fld id="{EF674B2B-9216-4429-8627-661A931C9F68}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14760,7 +14697,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14775,7 +14711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CFB7DB0-E8C5-4D6D-95BA-ED5306533054}" type="CELLRANGE">
+                    <a:fld id="{A31FB412-939B-4A4F-9CA1-2EBF3EE2E69B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14793,7 +14729,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14808,7 +14743,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C23B8A43-683A-4CB4-B08C-CF4AF425EB8B}" type="CELLRANGE">
+                    <a:fld id="{DDA80281-19DD-48C2-BDFA-E3A98801EDDB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14826,7 +14761,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14841,7 +14775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9342F0D3-A90D-4EE4-AC73-72DD0867BA6F}" type="CELLRANGE">
+                    <a:fld id="{7B0EFB9D-F020-406F-9396-C9B0562B2892}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14859,7 +14793,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14874,7 +14807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE66AA2B-B8D9-4BC1-9FFE-43F39907A0D3}" type="CELLRANGE">
+                    <a:fld id="{8E4D1E88-5D40-426C-8818-63C8D85202A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14892,7 +14825,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14907,7 +14839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{627DF62D-E0E2-435F-895A-477670573870}" type="CELLRANGE">
+                    <a:fld id="{FF3CC4DC-62E3-46F6-A15E-D61705194825}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14925,7 +14857,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14940,7 +14871,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{619E513F-25B0-4E65-AE85-AD6840271DAF}" type="CELLRANGE">
+                    <a:fld id="{8A443F4B-D1AF-4936-BB35-7ACBE82B9DB0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14958,7 +14889,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -14973,7 +14903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{842C282E-FF5B-4A59-BDB4-17CD89C5BC53}" type="CELLRANGE">
+                    <a:fld id="{64BD7A30-203A-4C8B-A575-61A01224C4F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14991,7 +14921,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15006,7 +14935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C3A6E92-61EE-4FC4-9301-C7DF5583742C}" type="CELLRANGE">
+                    <a:fld id="{6302D403-3FD4-402E-A577-95275DFBCC21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15024,7 +14953,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15039,7 +14967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31CC3E96-C007-4950-ABDB-CB8C83D0B8DF}" type="CELLRANGE">
+                    <a:fld id="{2DA0B751-2C5E-4104-895E-CFFD30F3BF99}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15057,7 +14985,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15072,7 +14999,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA22D301-1F30-4DE1-A43B-B1AFD93DA72E}" type="CELLRANGE">
+                    <a:fld id="{F59CEBD6-5F24-4D79-B976-A7B312FC7B2A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15090,7 +15017,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15105,7 +15031,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16C93D0F-918B-4C76-AAFD-4806FC907693}" type="CELLRANGE">
+                    <a:fld id="{95C91541-5000-4E59-9413-2008055327EE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15123,7 +15049,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15138,7 +15063,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66B65FF4-2BB6-4CA0-8DAF-C9E3F32F8DFD}" type="CELLRANGE">
+                    <a:fld id="{D70A31CF-6A28-4835-8362-CFDF4D9FF59E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15156,7 +15081,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15171,7 +15095,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{56328FC0-6088-4F17-90B3-D62617090D56}" type="CELLRANGE">
+                    <a:fld id="{8D3B7D36-DA74-4BF4-9586-1B45EA3AA115}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15189,7 +15113,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15204,7 +15127,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF44FABB-E5B8-418D-B0CB-BB8E726C2FED}" type="CELLRANGE">
+                    <a:fld id="{18887254-F8E1-4670-BA18-2F32AB1B502B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15222,7 +15145,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15237,7 +15159,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83F46449-8327-469F-9FD4-8D43D880EDCC}" type="CELLRANGE">
+                    <a:fld id="{2CE5ADA5-7C8C-4CE8-8F4D-19306332443B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15255,7 +15177,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15270,7 +15191,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{69A3E2A5-12D6-4A59-A9AB-1A09A651D80B}" type="CELLRANGE">
+                    <a:fld id="{ADE4BBC7-CC3E-4A8C-98BE-B5EEC067B08C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15288,7 +15209,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15303,7 +15223,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB7F9855-695A-4417-9F9C-074C3A38A944}" type="CELLRANGE">
+                    <a:fld id="{22901FDB-EB77-460A-8B43-D0C2A23DCC10}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15321,7 +15241,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15336,7 +15255,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC11BEDC-2AFB-4AEE-9B68-810D72BFEF4F}" type="CELLRANGE">
+                    <a:fld id="{0C8F5328-CA9C-4CFD-9144-4A9E0F4F6B2D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15354,7 +15273,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15369,7 +15287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECE060CD-75D3-45DA-8D25-1582B29A299C}" type="CELLRANGE">
+                    <a:fld id="{76F66E8B-4CAF-443D-8233-4A2FE04B66C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15387,7 +15305,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15402,7 +15319,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E83D437A-FD3D-4DAE-8BC7-A6454F4B570E}" type="CELLRANGE">
+                    <a:fld id="{B7ECE34C-C388-4859-9A81-9EAFB32E0259}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15420,7 +15337,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15435,7 +15351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{431DAE4B-F38F-4964-8AEA-C104DD537D01}" type="CELLRANGE">
+                    <a:fld id="{E42FE71E-6E72-405E-AFCB-18420AC8C4FF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15453,7 +15369,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15468,7 +15383,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A260AE20-C3FB-4022-B1BC-FDE69D346A84}" type="CELLRANGE">
+                    <a:fld id="{E845775F-5519-4936-BC38-BE50677EA6DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15486,7 +15401,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15501,7 +15415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8CFE6CA0-1277-496B-A057-9C1C20ABA231}" type="CELLRANGE">
+                    <a:fld id="{79C23723-73A9-4811-A8FD-14EA82B01CD5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15519,7 +15433,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15534,7 +15447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC3F5C37-2DB1-4C81-B7D7-C4CEBEB63599}" type="CELLRANGE">
+                    <a:fld id="{0DE05CBF-CF8F-429D-AE78-64356F7DC8A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15552,7 +15465,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15567,7 +15479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0446787C-092D-498E-9380-868E116937AE}" type="CELLRANGE">
+                    <a:fld id="{735159F0-BAD4-4CF7-80C6-1EED9A77CD9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15585,7 +15497,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15600,7 +15511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBD83EBF-8826-4695-A76D-315BBBB4F0BA}" type="CELLRANGE">
+                    <a:fld id="{702DA4D9-DD80-4CF6-84F6-A9FF26D8A81A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15618,7 +15529,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15633,7 +15543,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D279353-4DDF-409E-ABB8-BE7C38F4C725}" type="CELLRANGE">
+                    <a:fld id="{CEB2DB08-00D6-4116-A136-D244B74F53BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15651,7 +15561,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -15666,7 +15575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42E7FECD-E704-426F-844B-3DD91FFB53A3}" type="CELLRANGE">
+                    <a:fld id="{9F5BE7E8-EFCF-47C8-B2BD-AF2E145FF26A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -15684,7 +15593,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16384,7 +16292,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E661FE5-F0BB-4115-AE20-2822C57A782A}" type="CELLRANGE">
+                    <a:fld id="{99DFD451-1822-4AFB-A4E7-B4CEB01BA6E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16402,7 +16310,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16417,7 +16324,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F26F3866-D13C-4082-905F-31EA8D94C075}" type="CELLRANGE">
+                    <a:fld id="{B3EE7C4A-3C1C-43EF-A65C-303CC3CBDBBC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16435,7 +16342,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16450,7 +16356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BF80C00-2410-4790-BF34-9E97E4E59CBE}" type="CELLRANGE">
+                    <a:fld id="{64E21B01-82D3-4C6D-BE55-50A981D117F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16468,7 +16374,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16483,7 +16388,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67BF954C-311F-42E6-A068-3A5F5628336E}" type="CELLRANGE">
+                    <a:fld id="{38384622-9975-4B1D-925A-E4C24F38C866}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16501,7 +16406,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16516,7 +16420,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30D74153-4B22-4D7B-B41D-BB64E8D6472A}" type="CELLRANGE">
+                    <a:fld id="{0BD6FF91-656C-4417-BF85-C635A5F28D4D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16534,7 +16438,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16549,7 +16452,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D1E51DA-C422-43A1-9EC3-C183E1A8E0E4}" type="CELLRANGE">
+                    <a:fld id="{CAC4D56E-6C8F-496F-9B48-9C2E10EBA3F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16567,7 +16470,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16582,7 +16484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B73D9AE9-7545-412F-9A38-C434836A9CB3}" type="CELLRANGE">
+                    <a:fld id="{09608420-22CA-46DF-B104-7E3D420B553F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16600,7 +16502,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16615,7 +16516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBF4D27C-E29D-4B12-B999-B7AB239E6723}" type="CELLRANGE">
+                    <a:fld id="{B1BA6239-4E12-452A-BD87-9EADC4937DF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16633,7 +16534,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16648,7 +16548,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9F491DE-CB81-46EC-A9BF-9E8EC15A714F}" type="CELLRANGE">
+                    <a:fld id="{652F4FF0-AFC1-484A-9269-3EF29B2145C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16666,7 +16566,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16681,7 +16580,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AD25973-1F4B-41F2-ABAB-178F5CD4883E}" type="CELLRANGE">
+                    <a:fld id="{D94FA73D-483E-47AE-89AE-E45498C9FC2C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16699,7 +16598,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16714,7 +16612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57ECACD1-E3DD-456E-A519-D1B58F481C7C}" type="CELLRANGE">
+                    <a:fld id="{77798405-E15B-4A49-B1B3-0F22F6CA8C44}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16732,7 +16630,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16747,7 +16644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{835E9A31-E96B-4380-9084-9399E9236502}" type="CELLRANGE">
+                    <a:fld id="{C8062C63-9622-45DF-967F-489C8B98394C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16765,7 +16662,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16780,7 +16676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF4F649B-429F-4481-95BA-2CCCAAB52173}" type="CELLRANGE">
+                    <a:fld id="{70517B53-CE8D-401E-853D-34B00CCD1BFB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16798,7 +16694,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16813,7 +16708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B779EDCC-F6BC-4659-B8BD-72DC2038A58E}" type="CELLRANGE">
+                    <a:fld id="{45C4F131-3DD4-42D6-891B-DF41B6D10B60}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16831,7 +16726,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16846,7 +16740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5741B83-9FC6-48B0-823B-0C841C98B122}" type="CELLRANGE">
+                    <a:fld id="{4C8D64A1-A10B-4506-AB1F-119EC5AA5467}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16864,7 +16758,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16879,7 +16772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F915051-6A5B-4EC4-9BC9-E85AA0095F11}" type="CELLRANGE">
+                    <a:fld id="{3CA36BEF-EDB5-4DB8-B737-24AC78012AAA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16897,7 +16790,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16912,7 +16804,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{914A31AB-7378-4134-B4EF-654CC5F3FB79}" type="CELLRANGE">
+                    <a:fld id="{0389ED32-BC12-4F57-970A-5EE41390A371}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16930,7 +16822,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16945,7 +16836,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4BFA45E-CA4F-4F15-A34D-6331A92EDF42}" type="CELLRANGE">
+                    <a:fld id="{20747259-2194-4EB9-ACB4-4F97FB67AF6C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16963,7 +16854,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -16978,7 +16868,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE1596B3-9D73-408E-8C98-FA1FBA8685C2}" type="CELLRANGE">
+                    <a:fld id="{975AD32F-99DA-44CE-85EF-7E29528BF4EA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16996,7 +16886,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17011,7 +16900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{270F6E23-5C1B-4BD1-984A-62783A9E09C0}" type="CELLRANGE">
+                    <a:fld id="{3477E4CA-2E42-4065-90F5-93CB3210D1F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17029,7 +16918,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17044,7 +16932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0AE0DF5-AE5B-4E5F-A095-8586073FC747}" type="CELLRANGE">
+                    <a:fld id="{6F7414BD-D73F-4C2C-8D85-9C353EF7307A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17062,7 +16950,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17077,7 +16964,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54C16DD8-F770-467E-B89C-53D02951E978}" type="CELLRANGE">
+                    <a:fld id="{AABDEB79-F47B-4237-98AC-8FBBFB333B78}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17095,7 +16982,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17110,7 +16996,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3465331-CF62-411F-89EF-3621B24B8D87}" type="CELLRANGE">
+                    <a:fld id="{9DD49EBB-34BE-4B8A-9C37-646F40C1F846}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17128,7 +17014,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17143,7 +17028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40BEB215-F32E-44E2-B7C3-6A65E13E5914}" type="CELLRANGE">
+                    <a:fld id="{2C0299E2-759B-4130-A0F4-904601CA38AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17161,7 +17046,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17176,7 +17060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7ECD21E8-4439-420B-BD34-03741F88FF41}" type="CELLRANGE">
+                    <a:fld id="{EA28A6ED-A5DF-4FBC-A28E-9F0604781388}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17194,7 +17078,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17209,7 +17092,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F10A5B9C-F023-4914-9F1C-3C6F811E906E}" type="CELLRANGE">
+                    <a:fld id="{7724D922-65C5-41DC-98B5-3B3ADDF70702}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17227,7 +17110,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17242,7 +17124,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D202E7C-7F22-4761-BA4A-3B0248294F41}" type="CELLRANGE">
+                    <a:fld id="{BE0D734D-BEC9-409E-8886-57FF204ABF98}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17260,7 +17142,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17275,7 +17156,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34233F64-C6DE-49FD-9F04-183394A3FB94}" type="CELLRANGE">
+                    <a:fld id="{7761EE43-E8AD-4F98-8C26-0DFEB9271B92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17293,7 +17174,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17308,7 +17188,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AADCCB4-6A79-4CAF-AA85-BDEBD75D6CD6}" type="CELLRANGE">
+                    <a:fld id="{A07E3A56-D3E2-4335-9085-4D8AF6D858E2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17326,7 +17206,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17341,7 +17220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BF5F2F9-674A-447C-9194-37BA01DE52D0}" type="CELLRANGE">
+                    <a:fld id="{BD51872F-C7EF-4123-B302-8B9793306132}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17359,7 +17238,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17374,7 +17252,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{168FCB86-5951-4A27-B442-FF5C8E433DC3}" type="CELLRANGE">
+                    <a:fld id="{78845569-5896-430A-8336-380ECF6ADA7C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17392,7 +17270,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -17407,7 +17284,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8CDDDAF1-82C8-4977-B504-4CF84FD2160C}" type="CELLRANGE">
+                    <a:fld id="{E5DCCB89-98DC-4BB5-8FC4-377ADECDACD0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -17425,7 +17302,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -18125,7 +18001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8CB7BB66-7AE0-4A02-913F-0BEB38AA126F}" type="CELLRANGE">
+                    <a:fld id="{4F83CCE5-1331-4306-88FB-D986F87A1215}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18157,7 +18033,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1EB93DF-264E-4671-B18F-023945A55DA5}" type="CELLRANGE">
+                    <a:fld id="{4525A1E1-867D-4519-A19A-3212CA11CD88}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18190,7 +18066,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2FD0263-E928-492C-83A2-B0465E10BF15}" type="CELLRANGE">
+                    <a:fld id="{15EE8CD7-6A0D-427D-A996-61A802F9FFE9}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18223,7 +18099,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF618416-5256-432E-BB60-EE881EC911DF}" type="CELLRANGE">
+                    <a:fld id="{BAE66B08-0BFD-4548-8267-BAFDDC8E3938}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18256,7 +18132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5C3CB405-80C7-432A-8EE3-5C1B477A66CE}" type="CELLRANGE">
+                    <a:fld id="{1CFE82B1-71D0-4191-8D6D-B0C29CC50220}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18289,7 +18165,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8962A458-933C-4D59-B61F-7D6A76D48DB1}" type="CELLRANGE">
+                    <a:fld id="{49635836-74D8-4751-B8B6-846626EF141D}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18322,7 +18198,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0774CBE6-6FA3-43E7-BF19-1F378DAA97FF}" type="CELLRANGE">
+                    <a:fld id="{BC74EFDC-3F26-4298-8E27-57D95A2B69B2}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18355,7 +18231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F3B5ED8-B9BC-4E9A-9841-728A6F368C56}" type="CELLRANGE">
+                    <a:fld id="{332FE8EE-279E-4234-93E4-C730CCB230AF}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18388,7 +18264,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A560E47-0A0F-4F47-81DE-5D391AF0989E}" type="CELLRANGE">
+                    <a:fld id="{675A79A4-4879-4325-B6EB-C4B8AA4BEBEA}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18421,7 +18297,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5732857-F8C4-43F0-825D-409B5D7E7EB1}" type="CELLRANGE">
+                    <a:fld id="{C90F3991-9B0F-4F37-8F8F-EC8834158163}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18454,7 +18330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E5F8887-3F81-49E6-B0D1-7CBC815702EE}" type="CELLRANGE">
+                    <a:fld id="{1482C4A2-B7AB-451A-8DA0-50F2A2861287}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18487,7 +18363,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B39EE4CA-7D46-47AD-BC08-4953E6560F07}" type="CELLRANGE">
+                    <a:fld id="{7A931169-B7E1-4B19-A3EE-EFF0161A10FC}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18520,7 +18396,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6174DD4-E30B-4E7A-B72A-D2271F3F6897}" type="CELLRANGE">
+                    <a:fld id="{12D9A81E-784D-4119-89FD-5BEBB6760738}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18553,7 +18429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E292B35-6704-4923-8978-E84EC14DB843}" type="CELLRANGE">
+                    <a:fld id="{40ACCA7A-A28D-427B-B584-E510FDDFE804}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18586,7 +18462,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BA09704-4427-4A69-B884-66107F4C1ABC}" type="CELLRANGE">
+                    <a:fld id="{95415F37-CDD1-4B84-86AB-6B5375C03FDC}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18619,7 +18495,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D106106E-A83A-4462-97AD-34A2B1D3D070}" type="CELLRANGE">
+                    <a:fld id="{FCC5F590-44B0-4480-8AA2-F0E1A93492BC}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18652,7 +18528,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{733D9233-682B-4427-912E-5B559326F044}" type="CELLRANGE">
+                    <a:fld id="{9A373D7D-70AF-43BD-9420-8A04759E2839}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18685,7 +18561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EF92B3A-E2B7-47B4-A7B2-A605B0835B37}" type="CELLRANGE">
+                    <a:fld id="{28CEC941-56B4-4040-8D25-1201F7DFE958}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18718,7 +18594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90E576EA-C316-4C18-846D-4B6EC13E8CD3}" type="CELLRANGE">
+                    <a:fld id="{41F66987-3BB5-4C9B-BB48-84DBFCB83B03}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18751,7 +18627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E85C16E-0447-409A-9EA6-27B13532DBBC}" type="CELLRANGE">
+                    <a:fld id="{CD6D2275-22B7-4CCD-9B93-D511A275B550}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18784,7 +18660,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95FB22E3-34DB-4AAE-B33A-5ACA6C874689}" type="CELLRANGE">
+                    <a:fld id="{618F5B8D-A5DD-47C4-8656-0DD8ABE62613}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18817,7 +18693,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3659519C-519A-4C91-AE2F-0452AEBF9AEA}" type="CELLRANGE">
+                    <a:fld id="{41074811-B182-40CD-A3E9-5C2A6C4E50CD}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18850,7 +18726,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD61FA32-F51E-4415-B7F4-3EF2575D98E1}" type="CELLRANGE">
+                    <a:fld id="{7FB1BD99-494A-463E-A4DB-2F45C1B66722}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18883,7 +18759,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79FC685B-BDA0-43F1-AE04-9413F3561B66}" type="CELLRANGE">
+                    <a:fld id="{0340A710-7E03-43D5-B33F-9E4F7CBC3C99}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18916,7 +18792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85164775-D131-45B1-BC60-6E23D5EF5632}" type="CELLRANGE">
+                    <a:fld id="{B9D3BF94-2789-4809-9DD1-5274A64E3DB9}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18949,7 +18825,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{41EBA9EB-63E6-4D83-AAD3-CB7BFA62CF9E}" type="CELLRANGE">
+                    <a:fld id="{FB976919-69C5-44DF-9485-6F17778E48E6}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18982,7 +18858,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B6B9D54-94AB-4BA9-BEAA-8BEF9A7D8884}" type="CELLRANGE">
+                    <a:fld id="{0572745F-21FA-4432-89C9-5C31B5609100}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19015,7 +18891,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98A22FA7-6E9A-46BC-A66B-15C8D0E2E44E}" type="CELLRANGE">
+                    <a:fld id="{7221E92D-C390-48A1-B4B0-6F5301B944C2}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19048,7 +18924,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B0FFBAA-242E-4B80-BFF3-D8096BB255E9}" type="CELLRANGE">
+                    <a:fld id="{8924F013-A763-4533-A063-AFD450781049}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19081,7 +18957,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F798C4F3-D5DF-4A8A-85BD-72D9988B06AC}" type="CELLRANGE">
+                    <a:fld id="{9B743485-2EC4-4918-8D7D-C95F97010A5D}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19114,7 +18990,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2908EF8E-8378-48EA-A11A-EC6291C63BA5}" type="CELLRANGE">
+                    <a:fld id="{6C36EB49-C1BF-4873-8055-077BDF71B59F}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19147,7 +19023,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1BC9977-9F88-4FE8-BEB0-E79AFA18A730}" type="CELLRANGE">
+                    <a:fld id="{F512ADCE-5BF5-497F-BC06-A1F1BFC7E277}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19835,7 +19711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC437B5C-AEEB-42F9-85AD-6D0ADB05DADD}" type="CELLRANGE">
+                    <a:fld id="{242A9F3F-EDDD-4500-BF10-BFBB90D36DD4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19853,7 +19729,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -19868,7 +19743,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51D3EA14-AA56-4CBD-9E8C-B656ED52462D}" type="CELLRANGE">
+                    <a:fld id="{40F537F5-BE8A-4EA5-95D8-6425FB6236F5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19886,7 +19761,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -19901,7 +19775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F8347E0-3016-4C1F-A116-5D6337F213A5}" type="CELLRANGE">
+                    <a:fld id="{D79140F3-D017-4EDE-8325-A3C0226A6B05}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19919,7 +19793,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -19934,7 +19807,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2EDAF8A-36C3-43A3-B6EE-AF05B0D162DB}" type="CELLRANGE">
+                    <a:fld id="{6893D7B7-0D97-4768-AD35-83A7EFDC5F25}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19952,7 +19825,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -19967,7 +19839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F24803C-A779-4249-A1FA-739BE6C0B927}" type="CELLRANGE">
+                    <a:fld id="{B94976ED-2C88-47CD-B7B8-7BDEA9AAD048}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -19985,7 +19857,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20000,7 +19871,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBB0B1EB-30ED-49AF-9060-C724176BC966}" type="CELLRANGE">
+                    <a:fld id="{BD0D8461-7C64-4491-8EA5-43AB9AD55896}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20018,7 +19889,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20033,7 +19903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DFC96FA-B613-487A-B7E5-3809C7809D02}" type="CELLRANGE">
+                    <a:fld id="{94452ACE-2735-44CD-B869-C9E839B4B21A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20051,7 +19921,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20066,7 +19935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{38CEA6B8-89E0-4A8C-966F-63E4EC02F1E7}" type="CELLRANGE">
+                    <a:fld id="{0E5217F9-973B-4F22-B0FF-77A6F42F36B5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20084,7 +19953,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20099,7 +19967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B2299FB-41A4-46A8-85E6-E42920345511}" type="CELLRANGE">
+                    <a:fld id="{4B7432EB-3764-4007-96D5-7A31EFD8F0D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20117,7 +19985,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20132,7 +19999,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9B8A2CE-FE84-4F07-9488-EDC833BCA206}" type="CELLRANGE">
+                    <a:fld id="{ACB8B1DB-277A-432C-9BCC-4AD4C18ECAB7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20150,7 +20017,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20165,7 +20031,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFF2031E-C904-41EE-AEEB-DCC3ED2458F9}" type="CELLRANGE">
+                    <a:fld id="{D4CE171F-9EA8-41D4-A56B-DCAA47005A91}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20183,7 +20049,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20198,7 +20063,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FFB4BD6C-9CB8-42A3-859C-10940F359F0A}" type="CELLRANGE">
+                    <a:fld id="{49AA3454-F728-492C-BFE6-248343694EA7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20216,7 +20081,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20231,7 +20095,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7291001C-2B9D-4EF5-A645-4AAB67131CF5}" type="CELLRANGE">
+                    <a:fld id="{3635C367-DADF-4681-B304-E9A13BB0C0AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20249,7 +20113,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20264,7 +20127,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80CAE209-40F9-43DE-86CC-45E5D432CA2B}" type="CELLRANGE">
+                    <a:fld id="{FE790578-C585-49BA-A5CA-DEFCEEDDC2FD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20282,7 +20145,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20297,7 +20159,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B7538AED-355B-414D-9AC6-24754F142557}" type="CELLRANGE">
+                    <a:fld id="{A27EDF1C-1155-4353-A2B4-01CA433CFD6F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20315,7 +20177,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20330,7 +20191,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD5EA0F9-3275-4156-B7D5-A90B5A1E60CA}" type="CELLRANGE">
+                    <a:fld id="{6F59A8FE-AB40-4A59-9C54-607A2E26952A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20348,7 +20209,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20363,7 +20223,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{331D52BB-E4D6-4F0D-8FFA-5F12C9EE01F2}" type="CELLRANGE">
+                    <a:fld id="{2E33B878-6777-48A0-A08F-A48AB6A3869F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20381,7 +20241,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20396,7 +20255,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C44379D7-F3E4-49A3-AFA0-AC5C93FC7645}" type="CELLRANGE">
+                    <a:fld id="{4D1C1ABB-C72F-4B79-9FA1-3F21C17BC53F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20414,7 +20273,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20429,7 +20287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBF143EB-2669-4197-AD01-275AAD078090}" type="CELLRANGE">
+                    <a:fld id="{11D3EF08-D2B2-42C9-9721-02095865E095}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20447,7 +20305,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20462,7 +20319,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3D045AC2-2543-4869-936B-3C9B0ECD9E71}" type="CELLRANGE">
+                    <a:fld id="{81A85552-1988-441B-B1B7-E22B0FFC6763}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20480,7 +20337,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20495,7 +20351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEAF82E3-559D-489B-9805-145901EE4C81}" type="CELLRANGE">
+                    <a:fld id="{F294EBBA-557E-4DA8-869A-38251095529F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20513,7 +20369,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20528,7 +20383,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A979BCCC-A1EA-47A9-99B8-AB4C2FB8DFB7}" type="CELLRANGE">
+                    <a:fld id="{347562FA-CEA9-4D40-A8C9-41AD5CD8CD55}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20546,7 +20401,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20561,7 +20415,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81C5E2BA-5D14-420D-B45C-F60234D0C5C0}" type="CELLRANGE">
+                    <a:fld id="{CA2A36A0-B0BB-4E56-A6C7-E3F77DA9DB21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20579,7 +20433,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20594,7 +20447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5591C647-833D-4B67-AF25-F77ED5EB8A07}" type="CELLRANGE">
+                    <a:fld id="{79592FBD-313B-4F86-8010-83289F8CAE33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20612,7 +20465,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20627,7 +20479,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{525180C7-F37F-4F56-B16C-FBEE4A3A1380}" type="CELLRANGE">
+                    <a:fld id="{BD63F1BC-9076-4D9B-9ACB-231781B5EF1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20645,7 +20497,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20660,7 +20511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60AA4024-22A2-493F-85D7-73D7CEB32195}" type="CELLRANGE">
+                    <a:fld id="{551CA466-5896-471C-939A-15406D0D98C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20678,7 +20529,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20693,7 +20543,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B605783-E3DB-484D-9DAB-ABE0863C537F}" type="CELLRANGE">
+                    <a:fld id="{9421BDA3-8ECA-497F-8C4C-4339F9924B76}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20711,7 +20561,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20726,7 +20575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55128661-C317-4149-9DC2-A9AA84F08FCD}" type="CELLRANGE">
+                    <a:fld id="{1D29B6D8-DB2C-4234-AA80-FAC3F215EB7D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20744,7 +20593,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20759,7 +20607,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C32C8C60-85EB-405B-9928-B41800DAEA37}" type="CELLRANGE">
+                    <a:fld id="{2841CA93-F741-49D3-B1FC-F04898DCA34B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20777,7 +20625,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20792,7 +20639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81368D90-AF8B-479D-9AB8-E1B96CD66CCB}" type="CELLRANGE">
+                    <a:fld id="{BC222DB7-6BC3-4CD5-8FFE-CFB9BCBE8D60}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20810,7 +20657,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20825,7 +20671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF16149C-07C7-4670-854E-B3794BADE371}" type="CELLRANGE">
+                    <a:fld id="{5E72C04F-FADB-464E-8C9D-D7FBCB30EF84}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20843,7 +20689,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -20858,7 +20703,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A758386-9FFC-4758-A6E7-088D0B626954}" type="CELLRANGE">
+                    <a:fld id="{C4ACC139-138F-4109-9273-FC1B7B30CFE1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -20876,7 +20721,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -21546,7 +21390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E047FD13-7022-4277-95AB-59B6D2E8F91C}" type="CELLRANGE">
+                    <a:fld id="{A9D2B526-D44A-45F4-876D-934238FB22BB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21578,7 +21422,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CEA6CD34-0FC8-4CF2-A316-4D465B9835E0}" type="CELLRANGE">
+                    <a:fld id="{BC097DEB-BADF-4494-B7FF-08287CCFD752}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21611,7 +21455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D0A90A8-D877-4153-88C0-199B298672BD}" type="CELLRANGE">
+                    <a:fld id="{FFF285D4-417A-4247-A0F5-24480096DF39}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21644,7 +21488,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB255612-4C8A-4FA9-B74A-658CD332BD8D}" type="CELLRANGE">
+                    <a:fld id="{281F4AAA-820D-4688-82C5-BE97B2A4E016}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21677,7 +21521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CDA55A8C-8957-4AF8-B6DB-21D831B819D6}" type="CELLRANGE">
+                    <a:fld id="{7892F077-DC66-4789-BBCC-AD9EB86138D3}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21710,7 +21554,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE1696AC-651B-466C-B38C-B7D6C0A894F9}" type="CELLRANGE">
+                    <a:fld id="{FDCE909E-B501-4E9B-82FA-4E727F49BAD9}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21743,7 +21587,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9466BA2-22B2-407F-92FF-DD2F95E39819}" type="CELLRANGE">
+                    <a:fld id="{A61CD347-DD74-46B1-8545-52BBD0096CFD}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21776,7 +21620,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A80DCB8-C457-4F74-945E-2D688F70745F}" type="CELLRANGE">
+                    <a:fld id="{B244A69F-C42D-436A-93C5-E2C29249BA15}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21809,7 +21653,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{09DA058F-F8EE-4677-AB36-6F57D1E598B8}" type="CELLRANGE">
+                    <a:fld id="{2A6F1954-56A6-4EBF-9AD5-871D460E542C}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21842,7 +21686,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6E711D4-DED3-48AC-AACB-F262865811B1}" type="CELLRANGE">
+                    <a:fld id="{6E0257F8-3D48-42C5-B299-276EF9EB5DC7}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21875,7 +21719,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44B09FC6-6F77-4816-8FAC-95FA3175AF64}" type="CELLRANGE">
+                    <a:fld id="{AD15DB14-30D4-4B65-81EC-DB0374BF5C35}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21908,7 +21752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BB9492F-22BA-405B-9E49-EE844C842492}" type="CELLRANGE">
+                    <a:fld id="{2FD38701-1A9C-457E-BAC2-4686FEB6052E}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21941,7 +21785,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40237666-14E1-469D-840A-11F5ABC87DD9}" type="CELLRANGE">
+                    <a:fld id="{7AB93881-099E-4E34-8F42-F1082B877016}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -21974,7 +21818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88F214A2-1851-4134-8A44-F37A90F95AF6}" type="CELLRANGE">
+                    <a:fld id="{8A318365-5261-4BA2-BCA0-B3A5F5E092C6}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22007,7 +21851,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D220159-E435-42F5-82FE-B59794A1E8BF}" type="CELLRANGE">
+                    <a:fld id="{E3787B32-82EF-4FE7-9493-5DECB3F52A64}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22040,7 +21884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6239C426-C54D-48C2-A2F5-259D4BA96F22}" type="CELLRANGE">
+                    <a:fld id="{4A005CEB-BC87-4EB4-9E6D-54AE7A84F45E}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22073,7 +21917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAC20CCD-255F-4986-9C99-9B0F533ADB6F}" type="CELLRANGE">
+                    <a:fld id="{CF21C035-69C5-46AE-9274-839B376C7EE4}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22106,7 +21950,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC7306FA-13C4-42FC-90DF-BFE3F267F82C}" type="CELLRANGE">
+                    <a:fld id="{23E4C139-4BA6-43DF-B261-9CF1DB5E8F74}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22139,7 +21983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C9C6E85-3AFE-4D52-BE0D-71A3C84CD210}" type="CELLRANGE">
+                    <a:fld id="{E96E8E78-5B18-4AE8-8D04-C56F4451F011}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22172,7 +22016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C3334CB-CB80-49DC-8EF8-5F2CBB70A916}" type="CELLRANGE">
+                    <a:fld id="{C5B6B781-6008-471D-93AD-E8231B31C9E2}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22205,7 +22049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07F2F226-6D59-40D9-BC10-A8BEDB0BA4A5}" type="CELLRANGE">
+                    <a:fld id="{B990426C-1CB7-46BD-9BCC-3057CA878F6A}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22238,7 +22082,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{731E8901-B4BD-4E86-AD5E-0C1D92B731D1}" type="CELLRANGE">
+                    <a:fld id="{A15541D7-FF52-4790-92E5-52FAC63E1EA4}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22271,7 +22115,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85B9F15F-4B0B-43EB-AE97-9E5A34B89DB3}" type="CELLRANGE">
+                    <a:fld id="{5926520F-79A1-462E-A634-7997BF5C3E42}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22304,7 +22148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A7BA1E3-86CA-4600-AA94-6B89C6062CDF}" type="CELLRANGE">
+                    <a:fld id="{848C2FE6-2D0D-436B-BEEA-DB6B2736EAAF}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22337,7 +22181,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA2A98EC-FBAA-4B1E-8313-EAF642F577A7}" type="CELLRANGE">
+                    <a:fld id="{3351F073-AA1C-4A5B-BA84-99402F86C3B7}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22370,7 +22214,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79E7874D-5634-4CB3-A01F-13536AF76FE1}" type="CELLRANGE">
+                    <a:fld id="{A947C24A-99BE-4041-83D6-1FB9581836A8}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22403,7 +22247,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{92A35F27-3F47-438E-970C-C06E7562CBEE}" type="CELLRANGE">
+                    <a:fld id="{95A4289D-52A8-49C4-9396-51C95301E405}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22436,7 +22280,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FBB1E28B-87CB-46A7-9915-DE6CCDA59186}" type="CELLRANGE">
+                    <a:fld id="{92C0785C-E5EF-4AAC-B3DF-F07866E74384}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22469,7 +22313,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDD9AC61-9D13-4F05-800A-07F9E747CA8E}" type="CELLRANGE">
+                    <a:fld id="{D1ACD914-5958-48C4-9D58-D83291D94ECC}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22502,7 +22346,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6351DAD-C3E4-4A96-A11A-C4F8AEFAF7E9}" type="CELLRANGE">
+                    <a:fld id="{27E9E5A3-DB72-4FBA-AA1A-6AF18AA58B30}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22535,7 +22379,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{71B557A8-076E-4C46-8258-52565A673CBA}" type="CELLRANGE">
+                    <a:fld id="{71C6276C-A836-4961-93B8-D8EB30B3FD5D}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -22568,7 +22412,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5E86569-427C-48F0-9BAC-B1C257A79A58}" type="CELLRANGE">
+                    <a:fld id="{F581CA70-2D3D-4DC0-B1BA-9CC22563B8C1}" type="CELLRANGE">
                       <a:rPr lang="en-AU"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23256,7 +23100,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95F6EF7C-954D-4C8C-96D8-8D2DAB5A0929}" type="CELLRANGE">
+                    <a:fld id="{641ED341-0504-46C8-A1ED-5E71721C9388}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23274,7 +23118,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23289,7 +23132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77E7EF74-1887-45E7-A635-34EE03994DF9}" type="CELLRANGE">
+                    <a:fld id="{FA7BC546-8C6D-41AA-AF96-665F08BBE43C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23307,7 +23150,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23322,7 +23164,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D1E68DF-2CB5-42D5-BCC6-AB76777DEBAE}" type="CELLRANGE">
+                    <a:fld id="{8F713221-5F22-47E8-99B6-3D832B23D421}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23340,7 +23182,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23355,7 +23196,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{968D4411-7E2B-4A18-83FB-AFD192C218C1}" type="CELLRANGE">
+                    <a:fld id="{29364BD2-CC68-444A-92F8-B5B57DD80CA1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23373,7 +23214,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23388,7 +23228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0B44ACD-6953-42C9-84D9-B8F261657A41}" type="CELLRANGE">
+                    <a:fld id="{A58909F1-1C5C-4AD2-8308-846886699665}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23406,7 +23246,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23421,7 +23260,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1BE8417-ABA4-4AAA-9E85-0F28EA726E96}" type="CELLRANGE">
+                    <a:fld id="{99D8D66A-1083-4DF6-80CD-763A235CBF62}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23439,7 +23278,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23454,7 +23292,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0A6F593-FED3-486F-B590-E9536BC9EFC2}" type="CELLRANGE">
+                    <a:fld id="{AB6C41C3-165B-4EEC-9419-1AA10BAE4C96}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23472,7 +23310,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23487,7 +23324,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4016B45-027D-48BA-AC8B-E0D52EAE2375}" type="CELLRANGE">
+                    <a:fld id="{3581DF63-B2CD-4820-85E7-18B92AD70200}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23505,7 +23342,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23520,7 +23356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B42A1BD1-4088-4A92-AD43-7E48478245EA}" type="CELLRANGE">
+                    <a:fld id="{EA74DB41-761E-4815-8641-A16DEBF9128B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23538,7 +23374,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23553,7 +23388,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E32DDF9D-9B5B-4221-9ED5-40C21D17DCFC}" type="CELLRANGE">
+                    <a:fld id="{EAF5F9D7-B540-4695-ABCB-1147F6217CE9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23571,7 +23406,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23586,7 +23420,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A67EBCF-EE7F-428B-B033-4FF93BAC50CF}" type="CELLRANGE">
+                    <a:fld id="{29A97F6E-942B-41F7-89DD-407989B7C4EB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23604,7 +23438,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23619,7 +23452,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19692340-DDA0-4E58-8ACD-CB8754C2E3BA}" type="CELLRANGE">
+                    <a:fld id="{99E372B6-AB4A-4A4C-9FFB-E78A41FD9AA7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23637,7 +23470,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23652,7 +23484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{94EC9F8D-5E3B-41AD-A10A-EBE91EDB0066}" type="CELLRANGE">
+                    <a:fld id="{CBD68F4F-ED7F-4621-90E4-3998CE971655}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23670,7 +23502,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23685,7 +23516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF330D75-4DCE-458E-9321-3BB004728928}" type="CELLRANGE">
+                    <a:fld id="{E1AF1A95-A606-4477-8349-DB0E7896A690}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23703,7 +23534,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23718,7 +23548,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E49C4A93-F117-49BE-815F-ABC31F7DA77E}" type="CELLRANGE">
+                    <a:fld id="{1EDEAECA-FE7D-4B41-BA4B-644AF650DE19}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23736,7 +23566,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23751,7 +23580,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{853D2DB4-4BCE-459D-8BB5-F9445380BCE8}" type="CELLRANGE">
+                    <a:fld id="{407D1D22-21CF-4595-BE27-68767DE58601}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23769,7 +23598,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23784,7 +23612,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F147573A-578F-4A5A-9976-5F8FD16CDCE7}" type="CELLRANGE">
+                    <a:fld id="{73BE9FC2-0600-4A1E-A810-DAEAFF552A3B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23802,7 +23630,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23817,7 +23644,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2EB36BC-02F4-4495-87D0-1BF019DA0211}" type="CELLRANGE">
+                    <a:fld id="{20633594-785A-4E64-B491-BFB8AA48C913}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23835,7 +23662,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23850,7 +23676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{502CFE71-6237-4B99-96EE-586A37358B2E}" type="CELLRANGE">
+                    <a:fld id="{A487825F-C95B-474B-AC25-CCA611BA3C30}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23868,7 +23694,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23883,7 +23708,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{453A92C3-133E-4289-B868-E96E1AA9C71E}" type="CELLRANGE">
+                    <a:fld id="{7583E9A2-E721-424E-9467-E213FCBC4B61}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23901,7 +23726,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23916,7 +23740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF0D2B91-064A-44AC-B9AD-9FB0910EA63A}" type="CELLRANGE">
+                    <a:fld id="{7C689626-A88C-4112-8EBC-832BAC07AF56}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23934,7 +23758,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23949,7 +23772,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AAA4DCD-1187-4D2A-89D8-52294307E36B}" type="CELLRANGE">
+                    <a:fld id="{84EE1B40-1873-4783-A578-C692BA5645B5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -23967,7 +23790,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -23982,7 +23804,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98A5D1C0-E0D7-4F6D-88B9-F8E42DA36078}" type="CELLRANGE">
+                    <a:fld id="{5198DDE6-EF26-4B88-8226-F08906E608CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24000,7 +23822,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -24015,7 +23836,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B37DA41-C326-4A8B-8B7A-E7D46E2B635C}" type="CELLRANGE">
+                    <a:fld id="{F03FB194-6544-471B-A510-B09689F242EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24033,7 +23854,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -24048,7 +23868,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10B76BC8-358B-4BE5-90E6-614C379A6DD0}" type="CELLRANGE">
+                    <a:fld id="{140112BB-7E6E-4B46-B322-C1D98FCABFBB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24066,7 +23886,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -24081,7 +23900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA2D4A37-8108-4899-B8C5-B4A1D0D1A4C3}" type="CELLRANGE">
+                    <a:fld id="{6CC31E16-1044-4749-8D98-51EC807D3B58}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24099,7 +23918,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -24114,7 +23932,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A06F6F8B-7E71-413A-8A73-A73D3C0D140F}" type="CELLRANGE">
+                    <a:fld id="{6EFBB83D-A6DE-47BE-80BE-D8182FA79F6D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24132,7 +23950,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -24147,7 +23964,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5D996D76-6FDA-49C4-99AC-B2861362E624}" type="CELLRANGE">
+                    <a:fld id="{E88B1FBF-7581-41BC-A788-D351FFE79DAB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24165,7 +23982,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -24180,7 +23996,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D4D654C-82B4-490D-BC84-3BEDBEA41642}" type="CELLRANGE">
+                    <a:fld id="{8FCB0964-994A-47C6-B345-B44897BBAF30}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24198,7 +24014,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -24213,7 +24028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7814953F-1F16-40EB-A982-B49F1D8FAFB5}" type="CELLRANGE">
+                    <a:fld id="{25BF25C6-00FD-4EBA-A12F-0CB5A4D849D4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24231,7 +24046,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -24246,7 +24060,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C89E5C56-67C5-4FF9-ADA5-36A5AACBB1F5}" type="CELLRANGE">
+                    <a:fld id="{4CBD07E3-F5FC-46B9-B158-891DF87DCEE0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24264,7 +24078,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -24279,7 +24092,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FA88EFA-E7B6-478A-B6DB-581FFF59F10B}" type="CELLRANGE">
+                    <a:fld id="{62023612-6174-4750-8AAF-1BF0E554E9E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -24297,7 +24110,6 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -57751,7 +57563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AK47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AR45" sqref="AR45"/>
     </sheetView>
   </sheetViews>
